--- a/data/income_statement/2digits/size/30_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/30_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>30-Manufacture of other transport equipment</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>30-Manufacture of other transport equipment</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,872 +841,987 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>261589.35257</v>
+        <v>317682.29591</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>245902.33535</v>
+        <v>309920.47938</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>311146.41325</v>
+        <v>367605.92773</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>276858.4727</v>
+        <v>326900.97423</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>417221.41435</v>
+        <v>512889.57405</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>476248.32521</v>
+        <v>531811.9061</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>398808.15892</v>
+        <v>465535.68154</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>435183.00462</v>
+        <v>521581.42456</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>511877.96957</v>
+        <v>617981.35454</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1003714.05514</v>
+        <v>1104868.7723</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1215469.36332</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1367021.55035</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1598058.548</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>178098.4089</v>
+        <v>209489.74281</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>171889.7952</v>
+        <v>210273.84607</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>179918.75801</v>
+        <v>217427.58071</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>181373.41837</v>
+        <v>216614.02551</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>242175.91687</v>
+        <v>292123.35611</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>301347.88136</v>
+        <v>343039.60301</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>295728.46032</v>
+        <v>341483.18482</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>307746.52318</v>
+        <v>371401.06985</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>412453.45717</v>
+        <v>461917.71232</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>719640.8991299999</v>
+        <v>776113.6637799999</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>820997.0582299998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>929253.88167</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1124100.565</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>78304.46333</v>
+        <v>101525.13733</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>66095.50023999999</v>
+        <v>86018.86497</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>128645.58131</v>
+        <v>143003.27347</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>88169.21580999999</v>
+        <v>99173.65065</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>167358.26615</v>
+        <v>209508.99138</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>168770.13371</v>
+        <v>178523.66879</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>97750.36894000001</v>
+        <v>118377.55808</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>118196.59091</v>
+        <v>138254.48677</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>79158.62938</v>
+        <v>129258.78537</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>268561.12258</v>
+        <v>310304.80852</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>379072.91792</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>415520.82175</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>453882.699</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>5186.480340000001</v>
+        <v>6667.41577</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>7917.03991</v>
+        <v>13627.76834</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>2582.07393</v>
+        <v>7175.07355</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>7315.83852</v>
+        <v>11113.29807</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>7687.231330000001</v>
+        <v>11257.22656</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>6130.310140000001</v>
+        <v>10248.6343</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>5329.329660000001</v>
+        <v>5674.938639999999</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>9239.890529999999</v>
+        <v>11925.86794</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>20265.88302</v>
+        <v>26804.85685</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>15512.03343</v>
+        <v>18450.3</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>15399.38717</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>22246.84693</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>20075.284</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>2040.90762</v>
+        <v>3133.14813</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>2188.50177</v>
+        <v>2455.63838</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>2486.41243</v>
+        <v>2646.49473</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>4677.42392</v>
+        <v>6114.66329</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>5000.102859999999</v>
+        <v>6285.20049</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>6686.82167</v>
+        <v>7562.535910000001</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>5681.290970000001</v>
+        <v>5787.771729999999</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>2835.56524</v>
+        <v>3369.092370000001</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>2702.33088</v>
+        <v>4184.35493</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>24604.81822</v>
+        <v>24663.31308</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>9386.633519999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>9569.145140000001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>28075.689</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>1722.08377</v>
+        <v>1693.9004</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>1337.23244</v>
+        <v>1556.38389</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>1092.79181</v>
+        <v>1122.95623</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>1517.50839</v>
+        <v>2815.2946</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>2818.38079</v>
+        <v>3642.6868</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>2874.17604</v>
+        <v>3745.9488</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>4996.71645</v>
+        <v>5119.91899</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>2595.95096</v>
+        <v>3056.51669</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>2578.39344</v>
+        <v>3733.31724</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>16306.6255</v>
+        <v>16341.96941</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>8438.87081</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>8599.29876</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>23863.374</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>253.14577</v>
+        <v>258.10127</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>833.8044599999999</v>
+        <v>878.41545</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>1312.76282</v>
+        <v>1372.01485</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>2120.74036</v>
+        <v>2255.48941</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>1801.61123</v>
+        <v>2225.38664</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>3067.77776</v>
+        <v>3071.68774</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>231.46855</v>
+        <v>221.45978</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>24.81114</v>
+        <v>38.27652</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>54.88077000000001</v>
+        <v>306.93326</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>2061.74392</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>170.06059</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>179.65275</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>1919.649</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>65.67807999999999</v>
+        <v>1181.14646</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>17.46487</v>
+        <v>20.83904</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>80.8578</v>
+        <v>151.52365</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>1039.17517</v>
+        <v>1043.87928</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>380.1108399999999</v>
+        <v>417.12705</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>744.86787</v>
+        <v>744.89937</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>453.10597</v>
+        <v>446.39296</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>214.80314</v>
+        <v>274.29916</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>69.05667</v>
+        <v>144.10443</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>6236.4488</v>
+        <v>6259.59975</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>777.70212</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>790.19363</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>2292.666</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>259548.44495</v>
+        <v>314549.1477800001</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>243713.83358</v>
+        <v>307464.841</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>308660.0008200001</v>
+        <v>364959.433</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>272181.04878</v>
+        <v>320786.31094</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>412221.31149</v>
+        <v>506604.37356</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>469561.5035399999</v>
+        <v>524249.37019</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>393126.86795</v>
+        <v>459747.90981</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>432347.43938</v>
+        <v>518212.33219</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>509175.6386900001</v>
+        <v>613796.9996100001</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>979109.2369200001</v>
+        <v>1080205.45922</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1206082.7298</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1357452.40521</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1569982.859</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>218600.62133</v>
+        <v>255178.61646</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>193962.28201</v>
+        <v>251980.41395</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>262184.17475</v>
+        <v>304843.56189</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>219466.79386</v>
+        <v>258619.06751</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>356384.0378699999</v>
+        <v>427484.04601</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>387949.63258</v>
+        <v>425433.45677</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>322009.60769</v>
+        <v>375860.14472</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>366162.54667</v>
+        <v>441319.11658</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>418839.95508</v>
+        <v>498930.70536</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>750003.1474499999</v>
+        <v>817212.41124</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>982841.0646800001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1091174.19923</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1279999.122</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>117488.22617</v>
+        <v>139090.95444</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>91385.33678</v>
+        <v>121157.60582</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>113219.19116</v>
+        <v>130436.39904</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>127344.42965</v>
+        <v>147174.6126</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>213068.83739</v>
+        <v>258794.18494</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>249946.14107</v>
+        <v>270383.86388</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>164006.9616</v>
+        <v>198376.10334</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>192302.67323</v>
+        <v>240443.58412</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>209387.47187</v>
+        <v>266717.2737</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>468936.83933</v>
+        <v>498937.9393000001</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>608721.5719200001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>682946.93464</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>667016.512</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>46772.00497</v>
+        <v>47300.16726</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>45652.33446</v>
+        <v>50954.49756</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>79923.28947000002</v>
+        <v>82963.75852</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>48603.31948000001</v>
+        <v>49141.69426999999</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>91255.90441000002</v>
+        <v>98993.73995999999</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>74452.48294</v>
+        <v>83094.03762</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>108565.22987</v>
+        <v>120590.19469</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>96100.14060999999</v>
+        <v>118728.68562</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>106045.24988</v>
+        <v>114842.76753</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>121917.3361</v>
+        <v>145300.61861</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>151822.14989</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>152560.40666</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>302964.775</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>53478.07512</v>
+        <v>67864.06512999999</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>55597.47811</v>
+        <v>77037.37082</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>68816.80257000001</v>
+        <v>89412.03102000001</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>37889.23</v>
+        <v>56672.94590999999</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>50755.65749</v>
+        <v>68955.35281</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>63004.86878999999</v>
+        <v>69170.40436</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>49106.05735</v>
+        <v>56207.27482999999</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>76932.31329000001</v>
+        <v>79038.15375</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>95819.76968</v>
+        <v>108944.61775</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>155728.62731</v>
+        <v>169567.65903</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>218897.24006</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>252564.57325</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>296471.16</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>862.31507</v>
+        <v>923.42963</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>1327.13266</v>
+        <v>2830.93975</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>224.89155</v>
+        <v>2031.37331</v>
       </c>
       <c r="F18" s="48" t="n">
         <v>5629.81473</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>1303.63858</v>
+        <v>740.7683000000001</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>546.13978</v>
+        <v>2785.15091</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>331.35887</v>
+        <v>686.57186</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>827.41954</v>
+        <v>3108.69309</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>7587.463650000001</v>
+        <v>8426.04638</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>3420.34471</v>
+        <v>3406.1943</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>3400.10281</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>3102.28468</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>13546.675</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>40947.82362</v>
+        <v>59370.53132</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>49751.55157000001</v>
+        <v>55484.42705000001</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>46475.82607</v>
+        <v>60115.87111</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>52714.25492</v>
+        <v>62167.24343000001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>55837.27362000001</v>
+        <v>79120.32755</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>81611.87096000001</v>
+        <v>98815.91341999998</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>71117.26026</v>
+        <v>83887.76509</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>66184.89271</v>
+        <v>76893.21561000001</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>90335.68360999999</v>
+        <v>114866.29425</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>229106.08947</v>
+        <v>262993.04798</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>223241.66512</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>266278.20598</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>289983.737</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>32306.41013</v>
+        <v>53791.99532</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>40833.23239</v>
+        <v>72304.43870999999</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>35919.69776</v>
+        <v>60007.86128</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>38588.98685</v>
+        <v>65964.86588</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>51208.474</v>
+        <v>82943.04913000001</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>68552.32884</v>
+        <v>78860.74924999999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>57847.57030000001</v>
+        <v>80341.51595</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>63625.56048000001</v>
+        <v>72778.18341</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>66753.45518999999</v>
+        <v>105251.17632</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>153131.0489</v>
+        <v>188456.71192</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>164658.21855</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>178803.28661</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>198694.59</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>5.24508</v>
+        <v>1580.61313</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>82.80073</v>
+        <v>160.4039</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>73.14280000000001</v>
+        <v>80.42432000000001</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>1830.34572</v>
+        <v>1852.58499</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>2479.0317</v>
+        <v>2307.37921</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>1156.67168</v>
+        <v>1152.386</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>576.9594400000001</v>
+        <v>1112.02907</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>1535.65918</v>
+        <v>1532.59567</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>116.27492</v>
+        <v>212.93623</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>1721.86318</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>556.4509399999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>586.0922099999999</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>3290.522</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>4994.31367</v>
+        <v>6621.18954</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>7215.070140000001</v>
+        <v>11451.6996</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>6572.4394</v>
+        <v>8308.2978</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>7479.08144</v>
+        <v>8958.11851</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>10581.4059</v>
+        <v>13053.57926</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>17780.13145</v>
+        <v>15422.58182</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>9328.272449999999</v>
+        <v>10707.93704</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>10365.28371</v>
+        <v>11968.90663</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>12941.19016</v>
+        <v>16838.38296</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>31909.25534</v>
+        <v>35693.12598</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>28303.30898</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>32990.71581</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>32788.618</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>27306.85138</v>
+        <v>45590.19265</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>33535.36152</v>
+        <v>60692.33520999999</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>29274.11555999999</v>
+        <v>51619.13916</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>29279.55969000001</v>
+        <v>55154.16237999999</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>38148.0364</v>
+        <v>67582.09066</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>49615.52570999999</v>
+        <v>62285.78143000001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>47942.33841</v>
+        <v>68521.54984000001</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>51724.61759</v>
+        <v>59276.68111</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>53695.99011</v>
+        <v>88199.85712999999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>119499.93038</v>
+        <v>151041.72276</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>135798.45863</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>145226.47859</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>162615.45</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>8641.413490000001</v>
+        <v>5578.536</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>8918.31918</v>
+        <v>-16820.01166</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>10556.12831</v>
+        <v>108.0098300000001</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>14125.26807</v>
+        <v>-3797.622449999999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>4628.79962</v>
+        <v>-3822.721579999999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>13059.54212</v>
+        <v>19955.16417</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>13269.68996</v>
+        <v>3546.24914</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>2559.33223</v>
+        <v>4115.0322</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>23582.22842000001</v>
+        <v>9615.11793</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>75975.04057000001</v>
+        <v>74536.33606</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>58583.44657</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>87474.91937</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>91289.147</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>6684.982059999998</v>
+        <v>26965.40163</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>7956.30323</v>
+        <v>80942.60328</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>7217.59868</v>
+        <v>47024.59237999999</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>9483.557210000001</v>
+        <v>42586.90648000001</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>16800.11671</v>
+        <v>141250.36192</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>17772.02668</v>
+        <v>39899.12833</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>18644.08006</v>
+        <v>71622.40445</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>16476.44903</v>
+        <v>22541.5517</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>14247.35881</v>
+        <v>89717.58210000001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>135451.92853</v>
+        <v>232633.62563</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>74005.196</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>132537.08187</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>249306.359</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>27.27275</v>
+        <v>1394.50713</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>1380.11792</v>
+        <v>3934.62487</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>0.11792</v>
+        <v>2.33233</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>719.9702199999999</v>
+        <v>1311.22559</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>2273.95545</v>
+        <v>4134.17105</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>1550</v>
+        <v>1000.8815</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>982</v>
+        <v>151.39</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>0</v>
+        <v>213.892</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>0</v>
+        <v>805.80702</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>2701.75855</v>
+        <v>984.7905400000001</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>146.74619</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>1621.09888</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>14042.904</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>119.34035</v>
@@ -1840,116 +1856,131 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>958.97227</v>
+        <v>2016.04339</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>684.30943</v>
+        <v>1982.2175</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>677.13347</v>
+        <v>1487.06094</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>1803.24289</v>
+        <v>5544.15639</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>2095.98272</v>
+        <v>4397.87221</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>1419.85197</v>
+        <v>3253.86379</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>1481.71514</v>
+        <v>2231.62277</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>1634.91701</v>
+        <v>541.48443</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>1159.1783</v>
+        <v>8560.216490000001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>5502.36728</v>
+        <v>12473.78341</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>6687.75026</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>7921.151599999999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>4815.103</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>122.06457</v>
+        <v>126.52749</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>6.21464</v>
+        <v>44.60528</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>29.46418</v>
+        <v>163.67487</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>8.09507</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>12.31004</v>
+        <v>12.76915</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>56.51337</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>117.01791</v>
+        <v>5.28562</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>23.33898</v>
+        <v>8.338979999999999</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>0</v>
+        <v>3.38983</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>453.39</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>33.89830000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>35.14634</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>142.666</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>119.76705</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>0</v>
+        <v>668.9964699999999</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>34.323</v>
+        <v>55.42501</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>23.78873</v>
+        <v>69.91141</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>78.07885</v>
+        <v>81.9323</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>37.02761</v>
+        <v>39.92377</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>115.02642</v>
+        <v>1660.61419</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>18.55414</v>
+        <v>92.01673</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>8.93718</v>
+        <v>612.2412099999999</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>13.11742</v>
@@ -1957,98 +1988,113 @@
       <c r="M30" s="48" t="n">
         <v>152.88357</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>60.808</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>21.38978</v>
+        <v>659.75687</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>56.63329</v>
+        <v>54.51215</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>30.44907</v>
+        <v>51.87139</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>752.7225999999999</v>
+        <v>742.0945300000001</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>770.25595</v>
+        <v>144.54297</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>34.90737</v>
+        <v>472.8674</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>50.65104</v>
+        <v>1815.75031</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>50.59235</v>
+        <v>949.5700000000002</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>3.99195</v>
+        <v>7.49333</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>62.01358999999999</v>
+        <v>64.44575999999999</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>29.46853</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>38.83436</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>4.921</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>3963.0328</v>
+        <v>14849.08751</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>4067.18593</v>
+        <v>50071.00758999999</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>5405.0125</v>
+        <v>28265.76544</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>4501.85807</v>
+        <v>32350.67904</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>9687.283170000001</v>
+        <v>39433.14404</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>10134.00125</v>
+        <v>33113.44977</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>13656.43382</v>
+        <v>63013.34335999999</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>11102.02598</v>
+        <v>16817.5641</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>11612.3702</v>
+        <v>76380.02656</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>122920.4663</v>
+        <v>214149.73237</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>53828.31496000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>112237.77199</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>216115.392</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>0</v>
+        <v>430.67106</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>0</v>
+        <v>447.03948</v>
       </c>
       <c r="F33" s="48" t="n">
         <v>17.02852</v>
@@ -2057,10 +2103,10 @@
         <v>8.985809999999999</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>41.39644999999999</v>
+        <v>68.72324999999999</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>0</v>
+        <v>124.39252</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>3.4875</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>156.928</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,191 +2164,216 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>1353.14249</v>
+        <v>7680.37184</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>1761.84202</v>
+        <v>23755.96836</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>1041.09854</v>
+        <v>16551.42292</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>1656.85111</v>
+        <v>2543.71593</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>1873.26472</v>
+        <v>93036.94438999999</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>4498.32866</v>
+        <v>1892.90548</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>2241.23573</v>
+        <v>2620.00568</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>3643.53307</v>
+        <v>3915.19796</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>1462.88118</v>
+        <v>3348.40766</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>3798.81539</v>
+        <v>4494.36613</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>13126.13419</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>10530.19513</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>13967.637</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>4567.72129</v>
+        <v>16458.11466</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>6143.93948</v>
+        <v>48595.85784</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>11637.11297</v>
+        <v>38325.06509</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>6253.89284</v>
+        <v>30260.0908</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>17299.6367</v>
+        <v>144011.52635</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>16495.291</v>
+        <v>34964.93487</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>16351.96357</v>
+        <v>52833.76336</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>15062.13098</v>
+        <v>20508.48494</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>18347.0219</v>
+        <v>97539.71962</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>149991.83619</v>
+        <v>282150.78333</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>157245.20673</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>154045.97051</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>644906.62</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>24.79332</v>
+        <v>199.01639</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>1111.98239</v>
+        <v>1211.32829</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>909.39203</v>
+        <v>1424.01974</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>60.97343</v>
+        <v>125.33397</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>34.53968</v>
+        <v>97.70171999999999</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>57.86534</v>
+        <v>51.01016000000001</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>66.07925999999999</v>
+        <v>191.06124</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>31.02086</v>
+        <v>188.51199</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>40.21375</v>
+        <v>88.89545000000001</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>3.37686</v>
+        <v>113.76436</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>208.93626</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>213.91011</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>85.964</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>122.47548</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>226.12155</v>
+        <v>1646.12108</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>94.85737</v>
+        <v>152.68257</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>209.66949</v>
+        <v>477.18263</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>306.42803</v>
+        <v>92469.85228000001</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>600.6159699999999</v>
+        <v>1046.08595</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>562.1150699999999</v>
+        <v>585.81337</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>781.83654</v>
+        <v>459.8664200000001</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>244.46518</v>
+        <v>338.74517</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>1771.39155</v>
+        <v>1850.86965</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>492.89154</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>985.9357000000001</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>3720.302</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>129.98715</v>
+        <v>62.86105999999999</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>4.5</v>
+        <v>0.6</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>71.37828999999999</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>188.782</v>
+        <v>189.655</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>23.79706</v>
+        <v>28.37134</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>1.51237</v>
+        <v>2.00737</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>58.57944000000001</v>
+        <v>0</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>128.36599</v>
+        <v>103.63719</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>0</v>
@@ -2308,59 +2384,69 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>23.466</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>4012.88642</v>
+        <v>15834.95533</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>4068.33064</v>
+        <v>43623.93565</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>9327.50779</v>
+        <v>35011.43855</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>5285.642989999999</v>
+        <v>24252.74121</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>15702.05756</v>
+        <v>50335.51889</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>14083.91655</v>
+        <v>32013.01518</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>14965.09267</v>
+        <v>51265.04195</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>13314.73714</v>
+        <v>18897.57978</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>16694.32401</v>
+        <v>95848.8075</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>145604.03553</v>
+        <v>277682.80664</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>70922.09402</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>146237.51389</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>284744.175</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>0</v>
+        <v>1.28054</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>10.45661</v>
+        <v>106.6556</v>
       </c>
       <c r="F41" s="48" t="n">
         <v>0</v>
@@ -2375,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>55.15593</v>
+        <v>25.13296</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>156.928</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0.41027</v>
@@ -2405,10 +2496,10 @@
         <v>0</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>45.13168</v>
+        <v>0</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>0</v>
+        <v>19.95175</v>
       </c>
       <c r="I42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>3e-05</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>277.16865</v>
+        <v>238.39613</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>733.0049</v>
+        <v>2112.59228</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>1223.52088</v>
+        <v>1558.89034</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>508.82493</v>
+        <v>5215.17799</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>1169.79549</v>
+        <v>1062.19492</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>1717.86399</v>
+        <v>1799.34768</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>700.09713</v>
+        <v>791.8468</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>751.0145200000001</v>
+        <v>833.7565999999999</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>1368.01896</v>
+        <v>1263.2715</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>2613.03225</v>
+        <v>2503.34268</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>85621.28488000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>6608.61078</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>356175.785</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>4844.060729999999</v>
+        <v>11722.91328</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>2933.99615</v>
+        <v>18679.15601</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>4138.107389999999</v>
+        <v>25495.9489</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>7190.95583</v>
+        <v>28257.14518</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>7821.60066</v>
+        <v>30536.66201</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>10541.40398</v>
+        <v>20479.48668</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>10763.46481</v>
+        <v>14285.47324</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>12092.29435</v>
+        <v>20062.54405</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>10229.75824</v>
+        <v>27192.06417</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>34198.83244</v>
+        <v>46258.46254</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>30739.36318</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>43212.54873</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>32242.809</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>4396.03339</v>
+        <v>11051.34682</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>2802.21165</v>
+        <v>14628.71006</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>3023.87264</v>
+        <v>21860.52355</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>6473.53808</v>
+        <v>25144.42399</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>5742.687059999999</v>
+        <v>27364.63611</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>9381.381729999999</v>
+        <v>16884.10009</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>10082.40924</v>
+        <v>13604.41767</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>11868.21163</v>
+        <v>18575.24731</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>10200.05631</v>
+        <v>25622.69411</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>30713.06498</v>
+        <v>36385.17776000001</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>26996.55647</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>39502.89228</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>24091.735</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>448.02734</v>
+        <v>671.56646</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>131.7845</v>
+        <v>4050.44595</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>1114.23475</v>
+        <v>3635.42535</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>717.41775</v>
+        <v>3112.72119</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>2078.9136</v>
+        <v>3172.0259</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>1160.02225</v>
+        <v>3595.38659</v>
       </c>
       <c r="I46" s="48" t="n">
         <v>681.0555700000001</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>224.08272</v>
+        <v>1487.29674</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>29.70193</v>
+        <v>1569.37006</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>3485.76746</v>
+        <v>9873.28478</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>3742.80671</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>3709.65645</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>8151.074</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>5914.613530000001</v>
+        <v>4362.90969</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>7796.68678</v>
+        <v>-3152.422230000001</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>1998.50663</v>
+        <v>-16688.41178</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>10163.97661</v>
+        <v>-19727.95195</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-3692.32103</v>
+        <v>-37120.54801999999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>3794.87382</v>
+        <v>4409.87095</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>4798.341640000001</v>
+        <v>8049.416990000001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-8118.64407</v>
+        <v>-13914.44509</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>9252.80709</v>
+        <v>-25399.08376</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>27236.30047</v>
+        <v>-21239.28418</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-55395.92734</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>22753.482</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-336553.923</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>988.78504</v>
+        <v>76812.51908</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>2005.51331</v>
+        <v>33242.65353</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>6016.076299999999</v>
+        <v>58750.47468</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>2260.38342</v>
+        <v>10108.51934</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>13278.81974</v>
+        <v>19437.37395</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>16853.01531999999</v>
+        <v>5474.83213</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>3116.71525</v>
+        <v>7601.22722</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>4093.31712</v>
+        <v>6237.44771</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>11019.88777</v>
+        <v>24080.61108</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>11975.50886</v>
+        <v>41929.44562000001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>17491.91886</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>17383.16667</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>31493.95</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>114.77314</v>
+        <v>99.35410999999999</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>30.83586</v>
+        <v>514.3944299999999</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>133.70483</v>
+        <v>179.90757</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>13.07862</v>
+        <v>95.56353</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>133.84556</v>
+        <v>294.67639</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>1502.82485</v>
+        <v>123.62891</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>106.5914</v>
+        <v>29.78954</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>36.05786</v>
+        <v>33.9625</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>115.44592</v>
+        <v>153.20092</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>36.02584</v>
+        <v>17724.53842</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>156.63129</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>29.225</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>40.202</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>874.0119</v>
+        <v>76713.16497</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>1974.67745</v>
+        <v>32728.2591</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>5882.37147</v>
+        <v>58570.56711</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>2247.3048</v>
+        <v>10012.95581</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>13144.97418</v>
+        <v>19142.69756</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>15350.19047</v>
+        <v>5351.20322</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>3010.123849999999</v>
+        <v>7571.43768</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>4057.25926</v>
+        <v>6203.48521</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>10904.44185</v>
+        <v>23927.41016</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>11939.48302</v>
+        <v>24204.9072</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>17335.28757</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>17353.94167</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>31453.748</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>4040.867119999999</v>
+        <v>70333.40717000001</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>2807.0838</v>
+        <v>38301.07683</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>15560.84676</v>
+        <v>84772.97681000001</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>4684.04021</v>
+        <v>14107.55349</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>8713.953750000001</v>
+        <v>11353.57017</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>16492.6768</v>
+        <v>10332.48318</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>5564.434900000001</v>
+        <v>8373.26267</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>43876.87552</v>
+        <v>22691.73493</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>6897.074439999999</v>
+        <v>16474.57222</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>18936.97181</v>
+        <v>25593.38004</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>7076.285029999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>8994.10734</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>91842.269</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>1679.97091</v>
+        <v>1862.05523</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>537.1092</v>
+        <v>733.70168</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>201.51174</v>
+        <v>2055.2603</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>457.9216499999999</v>
+        <v>2387.63596</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>2704.18621</v>
+        <v>3221.78978</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>430.14996</v>
+        <v>1096.78633</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>842.44877</v>
+        <v>1667.54851</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>1228.88326</v>
+        <v>1369.37193</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>1561.82844</v>
+        <v>3299.03095</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>1215.72537</v>
+        <v>667.6244799999999</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>558.94962</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>558.34719</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>3188.063</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>333.12177</v>
+        <v>526.3223</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>108.52048</v>
+        <v>774.8801000000001</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>417.6388900000001</v>
+        <v>742.8671899999999</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>538.35113</v>
+        <v>1015.23467</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>120.2376</v>
+        <v>815.99484</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>261.99211</v>
+        <v>317.10401</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>80.05522999999999</v>
+        <v>50.88279</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>734.7721899999999</v>
+        <v>417.39565</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>212.08127</v>
+        <v>673.63985</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>122.35936</v>
+        <v>165.93172</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>219.05053</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>906.2208799999999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>470.107</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>2027.77444</v>
+        <v>67945.02963999999</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>2161.45412</v>
+        <v>36792.49505</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>14941.69613</v>
+        <v>81974.84932000001</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>3687.76743</v>
+        <v>10704.68286</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>5889.52994</v>
+        <v>7315.78555</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>15800.53473</v>
+        <v>8918.592839999999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>4641.9309</v>
+        <v>6654.83137</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>41913.22007</v>
+        <v>20904.96735</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>5123.16473</v>
+        <v>12501.90142</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>17598.88708</v>
+        <v>24759.82384</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>6298.284880000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>7529.539269999999</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>88184.099</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>2862.531449999999</v>
+        <v>10842.0216</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>6995.11629</v>
+        <v>-8210.845529999999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-7546.263829999999</v>
+        <v>-42710.91391</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>7740.31982</v>
+        <v>-23726.9861</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>872.5449599999995</v>
+        <v>-29036.74424</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>4155.21234</v>
+        <v>-447.7800999999994</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>2350.621989999999</v>
+        <v>7277.381539999999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-47902.20247</v>
+        <v>-30368.73231</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>13375.62042</v>
+        <v>-17793.0449</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>20274.83752</v>
+        <v>-4903.218599999997</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-44980.29351000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>31142.54133</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-396902.242</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>2327.02127</v>
+        <v>3618.86257</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>2758.04925</v>
+        <v>4372.092199999999</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>2951.90881</v>
+        <v>5982.06243</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>2908.18011</v>
+        <v>3180.49368</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>2786.09633</v>
+        <v>4419.08986</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>4967.2121</v>
+        <v>5125.372719999999</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>4013.39978</v>
+        <v>8970.516030000001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>3606.964980000001</v>
+        <v>3567.06931</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>4038.28048</v>
+        <v>5230.867920000001</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>11241.44414</v>
+        <v>14564.9295</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>14067.76214</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>17080.80972</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>20646.745</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>535.51018</v>
+        <v>7223.159029999999</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>4237.06704</v>
+        <v>-12582.93773</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-10498.17264</v>
+        <v>-48692.97633999999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>4832.139710000001</v>
+        <v>-26907.47978</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-1913.55137</v>
+        <v>-33455.8341</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-811.9997600000003</v>
+        <v>-5573.152819999999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-1662.77779</v>
+        <v>-1693.13449</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-51509.16745</v>
+        <v>-33935.80162000001</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>9337.339940000002</v>
+        <v>-23023.91282</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>9033.393380000003</v>
+        <v>-19468.1481</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-59048.05565000002</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>14061.73161</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-417548.987</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>230</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>229</v>
+        <v>184</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>255</v>
+        <v>186</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>245</v>
+        <v>190</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>261</v>
+        <v>186</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>270</v>
+        <v>203</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>216</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>